--- a/fuentes/contenidos/grado10/guion07/Escaleta_CN_10_07_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion07/Escaleta_CN_10_07_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA 10 Y 11\CN_10_07_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -14,9 +19,9 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$26</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="216">
   <si>
     <t>Asignatura</t>
   </si>
@@ -413,24 +418,9 @@
     <t>Recursos F</t>
   </si>
   <si>
-    <t>Recurso F13-01</t>
-  </si>
-  <si>
     <t>RF_01_01_CO</t>
   </si>
   <si>
-    <t>La teoría cinético molecular y los fluidos</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta la relación entre el movimiento de las moléculas y los tipos de fluidos</t>
-  </si>
-  <si>
-    <t>Preguntar acerca de imágenes en formato gif</t>
-  </si>
-  <si>
-    <t>Recurso F7B-01</t>
-  </si>
-  <si>
     <t>¿Qué sabes sobre fluidos?</t>
   </si>
   <si>
@@ -452,15 +442,9 @@
     <t>La presión</t>
   </si>
   <si>
-    <t>Interactivo que profundiza sobre el concepto de presión y sus aplicaciones</t>
-  </si>
-  <si>
     <t>Se usarán imágenes de recurso F1 de 4º ESO FísicaQuímica\la hidrostática\la presión</t>
   </si>
   <si>
-    <t>Recurso F6B-01</t>
-  </si>
-  <si>
     <t>Actividad que planeta preguntas sobre el concepto de presión</t>
   </si>
   <si>
@@ -473,24 +457,6 @@
     <t>La presión al interior de un fluido</t>
   </si>
   <si>
-    <t>La presión en los gases</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta un modelo básico sobre la presión que genera un gas</t>
-  </si>
-  <si>
-    <t>La presión en un gas</t>
-  </si>
-  <si>
-    <t>Recurso F12-01</t>
-  </si>
-  <si>
-    <t>La presión atmosférica</t>
-  </si>
-  <si>
-    <t>La presión de la atmósfera terrestre</t>
-  </si>
-  <si>
     <t>Recurso M101A-01</t>
   </si>
   <si>
@@ -572,18 +538,6 @@
     <t>Competencias</t>
   </si>
   <si>
-    <t>Actividad que guía el trabajo colaborativo con base en el concepto de presión hidrostática</t>
-  </si>
-  <si>
-    <t>Proyecto: la presión hidrostática</t>
-  </si>
-  <si>
-    <t>La presión hidrostática</t>
-  </si>
-  <si>
-    <t>Interactivo sobre las características de la presión atmosférica</t>
-  </si>
-  <si>
     <t>Comprende el fundamento de la prensa hidráulica</t>
   </si>
   <si>
@@ -593,15 +547,6 @@
     <t>Refuerza tu aprendizaje: El concepto de presión</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Calcula la presión hidrostática</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: El principio de Pascal</t>
-  </si>
-  <si>
-    <t>Actividad sobre el principio de Pascal</t>
-  </si>
-  <si>
     <t>El principio de Pascal</t>
   </si>
   <si>
@@ -644,9 +589,6 @@
     <t>Actividad sobre el principio de Arquímedes</t>
   </si>
   <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: El principio de Pascal    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: El principio de Arquímedes    </t>
   </si>
   <si>
@@ -659,12 +601,6 @@
     <t>Analiza el principio de flotabilidad de los cuerpos</t>
   </si>
   <si>
-    <t>Practica con cuerpos sumergidos y cuerpos flotantes</t>
-  </si>
-  <si>
-    <t>Actividad con animación que permite comprobar porqué los cuerpos flotan o se hunden de acuerdo con el principio de Arquímedes</t>
-  </si>
-  <si>
     <t>Actividad que propone realizar un experimento para comprender el fundamento del principio de Arquímedes</t>
   </si>
   <si>
@@ -695,18 +631,6 @@
     <t>Actividad acerca de los conceptos y principios de los fluidos en movimiento</t>
   </si>
   <si>
-    <t>Cambiar español ibérico, incluir elementos para tiempos y grupos y desarrollo del mismo (preguntar como se adapta)</t>
-  </si>
-  <si>
-    <t>Competencias: el principio de Bernoulli</t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar un experimento para comprender el fundamento del principio de Bernoulli</t>
-  </si>
-  <si>
-    <t>Recurso F13-03</t>
-  </si>
-  <si>
     <t>Banco de actividades: Mecánica de fluidos</t>
   </si>
   <si>
@@ -714,13 +638,56 @@
   </si>
   <si>
     <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>¿Qué es la presión?</t>
+  </si>
+  <si>
+    <t>Secuencia de imágenes que define la presión y muestra las principales unidades en que se expresa, así como algunas de sus aplicaciones</t>
+  </si>
+  <si>
+    <t>Recurso M4A-02</t>
+  </si>
+  <si>
+    <t>Actividad para seleccionar la respuesta correcta sobre el tema del principio de Arquímedes</t>
+  </si>
+  <si>
+    <t>Conoce la presión</t>
+  </si>
+  <si>
+    <t>Actividad que premite completar un texto sobre la presión</t>
+  </si>
+  <si>
+    <t>Recurso M2C-01</t>
+  </si>
+  <si>
+    <t>¿Qué tanto sabes sbre los fluidos en reposo</t>
+  </si>
+  <si>
+    <t>Actividad que permite conocer lo que has aprendido sobre los fluidos en reposo</t>
+  </si>
+  <si>
+    <t>Recurso M4A-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Propiedades de los sólidos, los líquidos y los gases</t>
+  </si>
+  <si>
+    <t>Los gases</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CN_09_10_CO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,8 +725,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,8 +806,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -881,6 +861,28 @@
       </top>
       <bottom style="double">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,7 +974,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1072,18 +1074,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1123,23 +1224,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -1300,7 +1389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1335,7 +1424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1544,11 +1633,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U124"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,96 +1667,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="64" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="44"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="53"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="65"/>
+    </row>
+    <row r="3" spans="1:21" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1707,23 +1797,23 @@
       <c r="P3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="14">
-        <v>6</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="85">
+        <v>9</v>
+      </c>
+      <c r="R3" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="S3" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="T3" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="U3" s="85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1739,29 +1829,29 @@
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
       <c r="G4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="8">
         <v>2</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="O4" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P4" s="19" t="s">
         <v>19</v>
@@ -1770,16 +1860,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1795,30 +1885,30 @@
       <c r="D5" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="25"/>
       <c r="G5" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="8">
         <v>3</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="23" t="s">
-        <v>33</v>
-      </c>
+      <c r="N5" s="23"/>
       <c r="O5" s="19" t="s">
         <v>136</v>
       </c>
@@ -1826,19 +1916,19 @@
         <v>19</v>
       </c>
       <c r="Q5" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1855,34 +1945,32 @@
         <v>124</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="F6" s="25"/>
       <c r="G6" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H6" s="8">
         <v>4</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="19" t="s">
-        <v>142</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="19"/>
       <c r="P6" s="19" t="s">
         <v>19</v>
       </c>
@@ -1890,16 +1978,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1916,52 +2004,54 @@
         <v>124</v>
       </c>
       <c r="E7" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="H7" s="8">
         <v>5</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="19"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="P7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1975,74 +2065,72 @@
         <v>124</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H8" s="8">
         <v>6</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="19" t="s">
-        <v>164</v>
-      </c>
+      <c r="O8" s="19"/>
       <c r="P8" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="29" t="s">
         <v>124</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>150</v>
+        <v>139</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="H9" s="8">
         <v>7</v>
@@ -2050,101 +2138,95 @@
       <c r="I9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>149</v>
+      <c r="J9" s="61" t="s">
+        <v>207</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="23"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="O9" s="19"/>
       <c r="P9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="26">
         <v>6</v>
       </c>
-      <c r="R9" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="R9" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="E10" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="44">
         <v>8</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="21" t="s">
+      <c r="L10" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q10" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="R10" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="S10" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="T10" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="U10" s="51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2155,52 +2237,52 @@
         <v>123</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="E11" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="36"/>
       <c r="G11" s="9" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="H11" s="8">
         <v>9</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" s="21" t="s">
+      <c r="L11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>159</v>
+      <c r="Q11" s="14">
+        <v>6</v>
       </c>
       <c r="R11" s="15" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2214,14 +2296,14 @@
         <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="9" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="H12" s="8">
         <v>10</v>
@@ -2230,7 +2312,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>19</v>
@@ -2239,27 +2321,25 @@
         <v>8</v>
       </c>
       <c r="M12" s="23"/>
-      <c r="N12" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="N12" s="23"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="26" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="S12" s="26" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="T12" s="28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U12" s="26" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2273,14 +2353,14 @@
         <v>123</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H13" s="8">
         <v>11</v>
@@ -2289,36 +2369,36 @@
         <v>19</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="23" t="s">
-        <v>62</v>
-      </c>
+      <c r="M13" s="23"/>
       <c r="N13" s="23"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="P13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="14">
-        <v>6</v>
+      <c r="Q13" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2332,14 +2412,14 @@
         <v>123</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H14" s="8">
         <v>12</v>
@@ -2348,36 +2428,36 @@
         <v>20</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="23"/>
       <c r="N14" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="R14" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="S14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>6</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="U14" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="T14" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="U14" s="26" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2391,114 +2471,114 @@
         <v>123</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H15" s="8">
         <v>13</v>
       </c>
       <c r="I15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>6</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="44">
+        <v>14</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K15" s="21" t="s">
+      <c r="L16" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H16" s="8">
-        <v>14</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="R16" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="S16" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="T16" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="U16" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q16" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="R16" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="S16" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="T16" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="U16" s="51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -2509,52 +2589,52 @@
         <v>123</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="36"/>
       <c r="G17" s="9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H17" s="8">
         <v>15</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K17" s="21" t="s">
+      <c r="L17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="R17" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="S17" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="T17" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="U17" s="26" t="s">
-        <v>163</v>
+      <c r="Q17" s="14">
+        <v>6</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2568,14 +2648,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="9" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="H18" s="8">
         <v>16</v>
@@ -2584,36 +2664,36 @@
         <v>20</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M18" s="23"/>
       <c r="N18" s="23" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="O18" s="19"/>
       <c r="P18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="14" t="s">
-        <v>159</v>
+      <c r="Q18" s="14">
+        <v>6</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="S18" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="U18" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="U18" s="14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2627,14 +2707,14 @@
         <v>123</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="9" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="H19" s="8">
         <v>17</v>
@@ -2643,7 +2723,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>20</v>
@@ -2652,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="19"/>
@@ -2669,10 +2749,10 @@
         <v>127</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2686,14 +2766,14 @@
         <v>123</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="9" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="H20" s="8">
         <v>18</v>
@@ -2702,7 +2782,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>20</v>
@@ -2722,78 +2802,78 @@
         <v>6</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="9" t="s">
+      <c r="D21" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="44">
         <v>19</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N21" s="23"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="51">
         <v>6</v>
       </c>
-      <c r="R21" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="U21" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R21" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="S21" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="T21" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="U21" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2804,14 +2884,12 @@
         <v>123</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>179</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="9" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="H22" s="8">
         <v>20</v>
@@ -2820,36 +2898,38 @@
         <v>20</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M22" s="23"/>
       <c r="N22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="19"/>
+        <v>120</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="P22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="14">
-        <v>6</v>
+      <c r="Q22" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="S22" s="14" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2863,14 +2943,12 @@
         <v>123</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>155</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="9" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="H23" s="8">
         <v>21</v>
@@ -2879,36 +2957,38 @@
         <v>20</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M23" s="23"/>
       <c r="N23" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="O23" s="19"/>
+        <v>120</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="P23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="14">
-        <v>6</v>
+      <c r="Q23" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="R23" s="15" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2922,53 +3002,39 @@
         <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="9" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="H24" s="8">
         <v>22</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>63</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M24" s="23"/>
       <c r="N24" s="23"/>
-      <c r="O24" s="19" t="s">
-        <v>222</v>
-      </c>
+      <c r="O24" s="19"/>
       <c r="P24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="U24" s="14" t="s">
-        <v>163</v>
-      </c>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="14"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -2981,12 +3047,12 @@
         <v>123</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="9" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="H25" s="8">
         <v>23</v>
@@ -2995,38 +3061,36 @@
         <v>20</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M25" s="23"/>
       <c r="N25" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>196</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="O25" s="19"/>
       <c r="P25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="S25" s="14" t="s">
+      <c r="Q25" s="26">
+        <v>6</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="S25" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="U25" s="26" t="s">
         <v>161</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="U25" s="14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3040,12 +3104,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="9" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H26" s="8">
         <v>24</v>
@@ -3054,265 +3118,139 @@
         <v>20</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="O26" s="19" t="s">
-        <v>196</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O26" s="19"/>
       <c r="P26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="S26" s="14" t="s">
+      <c r="Q26" s="26">
+        <v>6</v>
+      </c>
+      <c r="R26" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="S26" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="U26" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="T26" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="U26" s="14" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H27" s="8">
-        <v>25</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="23"/>
       <c r="N27" s="23"/>
       <c r="O27" s="19"/>
-      <c r="P27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>10</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="T27" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="26"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>170</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="8">
-        <v>26</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
       <c r="O28" s="19"/>
-      <c r="P28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="14"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="26"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>170</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="24"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="8">
-        <v>27</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="23"/>
-      <c r="N29" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="N29" s="23"/>
       <c r="O29" s="19"/>
-      <c r="P29" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="26">
-        <v>6</v>
-      </c>
-      <c r="R29" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="S29" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="T29" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="U29" s="26" t="s">
-        <v>174</v>
-      </c>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="26"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="24"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="8">
-        <v>28</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="23"/>
-      <c r="N30" s="23" t="s">
-        <v>52</v>
-      </c>
+      <c r="N30" s="23"/>
       <c r="O30" s="19"/>
-      <c r="P30" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="26">
-        <v>6</v>
-      </c>
-      <c r="R30" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="S30" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="T30" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="U30" s="26" t="s">
-        <v>174</v>
-      </c>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="26"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="20"/>
       <c r="J31" s="10"/>
       <c r="K31" s="21"/>
@@ -3328,14 +3266,14 @@
       <c r="U31" s="26"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="20"/>
       <c r="J32" s="10"/>
       <c r="K32" s="21"/>
@@ -3351,14 +3289,14 @@
       <c r="U32" s="26"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="8"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="20"/>
       <c r="J33" s="10"/>
       <c r="K33" s="21"/>
@@ -4050,7 +3988,7 @@
       <c r="G63" s="32"/>
       <c r="H63" s="19"/>
       <c r="I63" s="20"/>
-      <c r="J63" s="10"/>
+      <c r="J63" s="33"/>
       <c r="K63" s="21"/>
       <c r="L63" s="22"/>
       <c r="M63" s="23"/>
@@ -4073,7 +4011,7 @@
       <c r="G64" s="32"/>
       <c r="H64" s="19"/>
       <c r="I64" s="20"/>
-      <c r="J64" s="10"/>
+      <c r="J64" s="33"/>
       <c r="K64" s="21"/>
       <c r="L64" s="22"/>
       <c r="M64" s="23"/>
@@ -4096,7 +4034,7 @@
       <c r="G65" s="32"/>
       <c r="H65" s="19"/>
       <c r="I65" s="20"/>
-      <c r="J65" s="10"/>
+      <c r="J65" s="33"/>
       <c r="K65" s="21"/>
       <c r="L65" s="22"/>
       <c r="M65" s="23"/>
@@ -4119,7 +4057,7 @@
       <c r="G66" s="32"/>
       <c r="H66" s="19"/>
       <c r="I66" s="20"/>
-      <c r="J66" s="10"/>
+      <c r="J66" s="33"/>
       <c r="K66" s="21"/>
       <c r="L66" s="22"/>
       <c r="M66" s="23"/>
@@ -4201,291 +4139,196 @@
       <c r="T69" s="28"/>
       <c r="U69" s="26"/>
     </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="26"/>
-      <c r="T70" s="28"/>
-      <c r="U70" s="26"/>
-    </row>
-    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="28"/>
-      <c r="U71" s="26"/>
-    </row>
-    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="26"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="26"/>
-    </row>
-    <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="26"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="26"/>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U26">
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4500,9 +4343,15 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -4510,37 +4359,37 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N31:N73 N3:N29</xm:sqref>
+          <xm:sqref>N27:N69 N3:N25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I31:I73 K31:K73 I3:I27 K3:K27 P3:P27 P31:P73</xm:sqref>
+          <xm:sqref>I27:I69 K27:K69 P27:P69 K3:K23 I3:I23 P3:P23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L27 L31:L73</xm:sqref>
+          <xm:sqref>L27:L69 L3:L23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M27 M31:M73</xm:sqref>
+          <xm:sqref>M27:M69 M3:M23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'D:\Users\sergiocuellarardila\Documents\Planeta\Github\CienciasNaturales\fuentes\contenidos\grado10\guion06\[Escaleta CN_10_06_CO_F.xlsx]DATOS'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I24:I26 P24:P26 K24:M26 N26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A73</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>I28:I30 P28:P30 K28:M30 N30</xm:sqref>
+          <xm:sqref>A3:A69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado10/guion07/Escaleta_CN_10_07_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion07/Escaleta_CN_10_07_CO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA 10 Y 11\CN_10_07_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1155,6 +1155,12 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1223,12 +1229,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -1422,6 +1422,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1457,6 +1474,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1636,9 +1670,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,94 +1701,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="62" t="s">
+      <c r="N1" s="84"/>
+      <c r="O1" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="66" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="77"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="67"/>
     </row>
     <row r="3" spans="1:21" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1797,19 +1831,19 @@
       <c r="P3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="85">
+      <c r="Q3" s="62">
         <v>9</v>
       </c>
-      <c r="R3" s="85" t="s">
+      <c r="R3" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="S3" s="85" t="s">
+      <c r="S3" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="T3" s="86" t="s">
+      <c r="T3" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="U3" s="85" t="s">
+      <c r="U3" s="62" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2239,50 +2273,50 @@
       <c r="D11" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="36"/>
+      <c r="E11" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="25"/>
       <c r="G11" s="9" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="H11" s="8">
         <v>9</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="20" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13" t="s">
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="14">
-        <v>6</v>
+      <c r="Q11" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="R11" s="15" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2299,11 +2333,11 @@
         <v>155</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="9" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="H12" s="8">
         <v>10</v>
@@ -2312,34 +2346,36 @@
         <v>20</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L12" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
+      <c r="N12" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="S12" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="T12" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="U12" s="26" t="s">
-        <v>150</v>
+      <c r="Q12" s="14">
+        <v>6</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2360,45 +2396,45 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="9" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="H13" s="8">
         <v>11</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="19" t="s">
-        <v>151</v>
-      </c>
+      <c r="N13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="19"/>
       <c r="P13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>146</v>
+        <v>20</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>6</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2415,31 +2451,31 @@
         <v>155</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="9" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H14" s="8">
         <v>12</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23" t="s">
-        <v>32</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="23"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19" t="s">
         <v>19</v>
@@ -2448,19 +2484,19 @@
         <v>6</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2474,11 +2510,11 @@
         <v>155</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="9" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="H15" s="8">
         <v>13</v>
@@ -2487,36 +2523,34 @@
         <v>20</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="23"/>
-      <c r="N15" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="N15" s="23"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4359,25 +4393,25 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N27:N69 N3:N25</xm:sqref>
+          <xm:sqref>N27:N69 N3:N10 N11:N25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I27:I69 K27:K69 P27:P69 K3:K23 I3:I23 P3:P23</xm:sqref>
+          <xm:sqref>I27:I69 K27:K69 P27:P69 K3:K10 K11:K23 I3:I10 I11:I23 P3:P10 P11:P23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L27:L69 L3:L23</xm:sqref>
+          <xm:sqref>L27:L69 L3:L10 L11:L23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M27:M69 M3:M23</xm:sqref>
+          <xm:sqref>M27:M69 M3:M10 M11:M23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4389,7 +4423,7 @@
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A69</xm:sqref>
+          <xm:sqref>A3:A10 A11:A69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
